--- a/data/policy_comparison_data.xlsx
+++ b/data/policy_comparison_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,81 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>573</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>573</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>573</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>573</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>573</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/policy_comparison_data.xlsx
+++ b/data/policy_comparison_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,173 +425,137 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="70" customWidth="1" min="1" max="1"/>
     <col width="70" customWidth="1" min="2" max="2"/>
-    <col width="70" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Policy Number</t>
+          <t>Source URL</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Source URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Destination URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>573</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>573</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>573</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>573</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>573</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>573</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>573</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>573</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>573</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>573</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>https://al-policies.exploremyplan.com/portal/web/medical-policies/-/mp-573</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>https://stage-us-mypolicies.itilitihealth.us/policy/938125692074/573?lob=BCBS+AL</t>
         </is>
